--- a/Docs/TimesheetGlobal.xlsx
+++ b/Docs/TimesheetGlobal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Johnny" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>Tarefas</t>
   </si>
@@ -98,12 +98,6 @@
     <t>10h</t>
   </si>
   <si>
-    <t>Integração - Controle de Promoção</t>
-  </si>
-  <si>
-    <t>Integração - Gerar Relatório Pizza</t>
-  </si>
-  <si>
     <t>3h</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>Atualizar cronograma</t>
   </si>
   <si>
-    <t>Adicionar CRUD - Produto</t>
-  </si>
-  <si>
     <t>Documentação - Enviar Feedback</t>
   </si>
   <si>
@@ -243,13 +234,53 @@
   </si>
   <si>
     <t>1h10min</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Atualizar timesheet</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>REVER</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>Formato com sprint</t>
+  </si>
+  <si>
+    <t>Integração no módulo - Gerar Relatório Pizza</t>
+  </si>
+  <si>
+    <t>Integração no módulo - Controle de Promoção</t>
+  </si>
+  <si>
+    <t>Integração no módulo - Módulos completos</t>
+  </si>
+  <si>
+    <t>Adicionar CRUD - Produto
+Redefinir conforme feriados e estimativas de provas</t>
+  </si>
+  <si>
+    <t>12min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,13 +288,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,8 +322,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E25" totalsRowShown="0">
-  <autoFilter ref="A1:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E27" totalsRowShown="0">
+  <autoFilter ref="A1:E27"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tarefas"/>
     <tableColumn id="3" name="Tempo Estimado"/>
@@ -309,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tarefas"/>
     <tableColumn id="3" name="Tempo Estimado"/>
@@ -651,22 +704,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -696,8 +749,11 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -713,8 +769,9 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -730,8 +787,9 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -747,96 +805,155 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F16:F18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,10 +963,10 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,85 +983,105 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F12:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -954,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,9 +1104,10 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -999,89 +1137,110 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F13:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1091,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,9 +1263,10 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,88 +1283,108 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1214,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,9 +1407,10 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1259,80 +1440,101 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F13:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Docs/TimesheetGlobal.xlsx
+++ b/Docs/TimesheetGlobal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Johnny" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>Tarefas</t>
   </si>
@@ -77,9 +77,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Falar com outros Arquitetos</t>
-  </si>
-  <si>
     <t>OBS</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Documentação - Cadastro Produto</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Atualizar cronograma</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   </si>
   <si>
     <t>Documentação - Ordenar Produto</t>
-  </si>
-  <si>
-    <t>2h20min</t>
   </si>
   <si>
     <t>Documentação - API Estoque</t>
@@ -274,6 +265,16 @@
   </si>
   <si>
     <t>12min</t>
+  </si>
+  <si>
+    <t>2h50min</t>
+  </si>
+  <si>
+    <t>Fazer desenho melhor do 
+que será usado conforme visto</t>
+  </si>
+  <si>
+    <t>50min</t>
   </si>
 </sst>
 </file>
@@ -324,14 +325,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,8 +405,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:E16" totalsRowShown="0">
-  <autoFilter ref="A1:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tarefas"/>
     <tableColumn id="3" name="Tempo Estimado"/>
@@ -706,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,10 +748,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,15 +762,12 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -782,14 +780,11 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -802,10 +797,10 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -814,25 +809,28 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -841,97 +839,97 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
+      <c r="F24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -953,7 +951,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,101 +978,104 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1094,7 +1095,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,105 +1136,105 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1253,7 +1254,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,104 +1281,104 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1396,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,96 +1439,99 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Docs/TimesheetGlobal.xlsx
+++ b/Docs/TimesheetGlobal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Johnny" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
   <si>
     <t>Tarefas</t>
   </si>
@@ -275,6 +275,25 @@
   </si>
   <si>
     <t>50min</t>
+  </si>
+  <si>
+    <t>Preparação do ambiente</t>
+  </si>
+  <si>
+    <t>Doc. Especificação do módulo de BI</t>
+  </si>
+  <si>
+    <t>Codificação inicial
+Página de login criada</t>
+  </si>
+  <si>
+    <t>Familiarização com o ambiente
+Início da codificação</t>
+  </si>
+  <si>
+    <t>Atualizar documentação de 
+CRUD de produto
+Acabar de desenhar diagrama de classes</t>
   </si>
 </sst>
 </file>
@@ -707,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,15 +821,21 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" t="s">
         <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -951,7 +976,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +985,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -998,7 +1023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1007,6 +1032,9 @@
       </c>
       <c r="D3" t="s">
         <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1095,7 +1123,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1132,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1157,7 +1185,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1166,6 +1194,9 @@
       </c>
       <c r="D4" t="s">
         <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1254,7 +1285,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1294,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1310,6 +1341,9 @@
       </c>
       <c r="D3" t="s">
         <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1397,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1441,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1445,7 +1479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1454,6 +1488,12 @@
       </c>
       <c r="C3" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1463,6 +1503,12 @@
       </c>
       <c r="B4" t="s">
         <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
       </c>
       <c r="F4" s="3"/>
     </row>
